--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/CREDITOS     ZAVALETA   ABRIL     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/CREDITOS     ZAVALETA   ABRIL     2023.xlsx
@@ -22,6 +22,7 @@
     <sheet name="Hoja2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6879,10 +6880,10 @@
   <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6952,7 +6953,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -6974,7 +6975,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -6997,7 +6998,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -7020,7 +7021,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -7042,7 +7043,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -7064,7 +7065,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -7086,7 +7087,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -7108,7 +7109,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -7130,7 +7131,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -7152,7 +7153,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -7174,7 +7175,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -7196,7 +7197,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -7218,7 +7219,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -7240,7 +7241,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -7262,7 +7263,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -7284,7 +7285,7 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -7306,7 +7307,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -7328,7 +7329,7 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -7350,7 +7351,7 @@
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -7372,7 +7373,7 @@
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -7394,7 +7395,7 @@
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -7416,7 +7417,7 @@
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7438,7 +7439,7 @@
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7460,7 +7461,7 @@
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -7489,7 +7490,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-459863.79999999981</v>
+        <v>-172223.79999999981</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -7511,7 +7512,7 @@
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-459863.79999999981</v>
+        <v>-172223.79999999981</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -7534,12 +7535,18 @@
       <c r="J30" s="100"/>
     </row>
     <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="52"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
+      <c r="B31" s="52">
+        <v>45035</v>
+      </c>
+      <c r="C31" s="101">
+        <v>45042</v>
+      </c>
+      <c r="D31" s="102">
+        <v>83619.5</v>
+      </c>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2030981</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -7547,48 +7554,78 @@
       <c r="J31" s="100"/>
     </row>
     <row r="32" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="82"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="103"/>
+      <c r="B32" s="82">
+        <v>45036</v>
+      </c>
+      <c r="C32" s="90">
+        <v>45042</v>
+      </c>
+      <c r="D32" s="103">
+        <v>49350.5</v>
+      </c>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2080331.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="82"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="103"/>
+      <c r="B33" s="82">
+        <v>45037</v>
+      </c>
+      <c r="C33" s="90">
+        <v>45042</v>
+      </c>
+      <c r="D33" s="103">
+        <v>62315</v>
+      </c>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2142646.5</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="82"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="103"/>
+      <c r="B34" s="82">
+        <v>45038</v>
+      </c>
+      <c r="C34" s="90">
+        <v>45042</v>
+      </c>
+      <c r="D34" s="103">
+        <v>26630</v>
+      </c>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2169276.5</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="82"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="84"/>
+      <c r="B35" s="82">
+        <v>45039</v>
+      </c>
+      <c r="C35" s="90">
+        <v>45042</v>
+      </c>
+      <c r="D35" s="84">
+        <v>28646</v>
+      </c>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2197922.5</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="82"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="84"/>
+      <c r="B36" s="82">
+        <v>45040</v>
+      </c>
+      <c r="C36" s="90">
+        <v>45042</v>
+      </c>
+      <c r="D36" s="84">
+        <v>37079</v>
+      </c>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7597,7 +7634,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7606,7 +7643,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7615,7 +7652,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7624,7 +7661,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7633,7 +7670,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7642,7 +7679,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -7651,7 +7688,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -7662,7 +7699,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -7673,7 +7710,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -7684,7 +7721,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -7696,7 +7733,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1947361.5</v>
+        <v>2235001.5</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/CREDITOS     ZAVALETA   ABRIL     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/CREDITOS     ZAVALETA   ABRIL     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -17,12 +17,11 @@
     <sheet name="FEBRERO    2 0 2 3" sheetId="4" r:id="rId3"/>
     <sheet name=" M A R Z O    2 0 2 3       " sheetId="5" r:id="rId4"/>
     <sheet name="PAGOS Zavaleta &amp; Obrador  MARZO" sheetId="6" r:id="rId5"/>
-    <sheet name="Hoja6" sheetId="7" r:id="rId6"/>
-    <sheet name="Hoja1" sheetId="8" r:id="rId7"/>
+    <sheet name="   A B R I L    2 0 2 3    " sheetId="7" r:id="rId6"/>
+    <sheet name="PAGO ZAVALETA  &amp; OBRADOR  Abril" sheetId="8" r:id="rId7"/>
     <sheet name="Hoja2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="56">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -213,7 +212,28 @@
     <t>18-Mar-23--22-Mar-23--24-Mar-23</t>
   </si>
   <si>
-    <t>25-Mar-23--29-Mar-23--</t>
+    <t>REMISIONES    POR     CREDITOS    DE   ABRIL         2 0 2 3</t>
+  </si>
+  <si>
+    <t>25-Mar-23--29-Mar-23--02-Abr-23</t>
+  </si>
+  <si>
+    <t>NORMA LEDO  ( Central )</t>
+  </si>
+  <si>
+    <t>HERRADURA 4 CARNES</t>
+  </si>
+  <si>
+    <t>GRACIELA LEDO</t>
+  </si>
+  <si>
+    <t>4-Abr-23--6-Abr-23--10-Abr-23--11-Abr-23</t>
+  </si>
+  <si>
+    <t>13-Abr-23--15-Abr-23--19-Abr-23</t>
+  </si>
+  <si>
+    <t>20-Abr-23--25-Abr-23</t>
   </si>
 </sst>
 </file>
@@ -226,7 +246,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +509,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3399FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -564,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -858,12 +894,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1166,8 +1264,68 @@
     <xf numFmtId="164" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1213,6 +1371,28 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="34" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1222,14 +1402,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3399FF"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF0000FF"/>
+      <color rgb="FF00FF00"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFCC6600"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FFFF9900"/>
       <color rgb="FF99FF99"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
@@ -1515,6 +1696,169 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E055DA59-7FBF-4D29-B4AB-401C9645664F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4805365" y="13358815"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A450A5-FF34-4FFA-923D-F99626F430F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5700714" y="13406442"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2380</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>335755</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5" descr="C:\Users\ROUSS\Pictures\2023-03-23 ESCANEO\WhatsApp Image 2023-03-24 at 10.25.06 AM.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10694193" y="142874"/>
+          <a:ext cx="7953375" cy="8608219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
@@ -1537,7 +1881,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4805365" y="13358815"/>
+          <a:off x="4805365" y="12949240"/>
           <a:ext cx="581022" cy="590546"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1590,7 +1934,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5700714" y="13406442"/>
+          <a:off x="5700714" y="12996867"/>
           <a:ext cx="638173" cy="495298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1620,24 +1964,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>261620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5" descr="C:\Users\ROUSS\Pictures\2023-03-23 ESCANEO\WhatsApp Image 2023-03-24 at 10.25.06 AM.jpeg"/>
+        <xdr:cNvPr id="9" name="Imagen 8" descr="C:\Users\ROUSS\Pictures\2023-04-28 ESCANEO\WhatsApp Image 2023-04-28 at 12.40.21 PM.jpeg"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1655,8 +1999,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10687049" y="142874"/>
-          <a:ext cx="7953375" cy="8543925"/>
+          <a:off x="10791825" y="161925"/>
+          <a:ext cx="7753350" cy="8853170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1961,25 +2305,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="156"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
+      <c r="B2" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2746,12 +3090,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="158">
+      <c r="E37" s="178">
         <f>E33-G33</f>
         <v>0</v>
       </c>
-      <c r="F37" s="159"/>
-      <c r="G37" s="160"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="180"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2767,11 +3111,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="161" t="s">
+      <c r="E39" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2934,10 +3278,10 @@
   <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="L25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2953,17 +3297,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -3290,10 +3634,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="163" t="s">
+      <c r="H17" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="164"/>
+      <c r="I17" s="184"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3314,8 +3658,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="166"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="186"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3336,8 +3680,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="166"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="186"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3358,8 +3702,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="166"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="186"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3380,8 +3724,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="166"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="186"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3402,8 +3746,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="166"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="186"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3424,8 +3768,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="166"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="186"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3446,8 +3790,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="166"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="186"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3468,8 +3812,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="166"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="186"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3490,8 +3834,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="168"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="188"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3991,25 +4335,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="156"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
+      <c r="B2" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5283,12 +5627,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="158">
+      <c r="E59" s="178">
         <f>E55-G55</f>
         <v>12119</v>
       </c>
-      <c r="F59" s="159"/>
-      <c r="G59" s="160"/>
+      <c r="F59" s="179"/>
+      <c r="G59" s="180"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5304,11 +5648,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="161" t="s">
+      <c r="E61" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="161"/>
-      <c r="G61" s="161"/>
+      <c r="F61" s="181"/>
+      <c r="G61" s="181"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5468,11 +5812,11 @@
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5489,25 +5833,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="156"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
+      <c r="B2" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5558,7 +5902,7 @@
         <v>63942</v>
       </c>
       <c r="H4" s="19">
-        <f t="shared" ref="H4:H54" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H45" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -6054,8 +6398,8 @@
       <c r="E24" s="20">
         <v>7730</v>
       </c>
-      <c r="F24" s="111"/>
-      <c r="G24" s="21"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
         <v>7730</v>
@@ -6075,8 +6419,8 @@
       <c r="E25" s="20">
         <v>5020</v>
       </c>
-      <c r="F25" s="111"/>
-      <c r="G25" s="21"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="122"/>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
         <v>5020</v>
@@ -6096,8 +6440,8 @@
       <c r="E26" s="20">
         <v>21400</v>
       </c>
-      <c r="F26" s="111"/>
-      <c r="G26" s="21"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="122"/>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
         <v>21400</v>
@@ -6142,8 +6486,8 @@
       <c r="E28" s="20">
         <v>2610</v>
       </c>
-      <c r="F28" s="111"/>
-      <c r="G28" s="21"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="122"/>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
         <v>2610</v>
@@ -6163,8 +6507,8 @@
       <c r="E29" s="20">
         <v>4950</v>
       </c>
-      <c r="F29" s="111"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="122"/>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
         <v>4950</v>
@@ -6220,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>45009</v>
       </c>
@@ -6234,19 +6578,19 @@
       <c r="E32" s="20">
         <v>39043</v>
       </c>
-      <c r="F32" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="21">
-        <f>9300+1500+7800</f>
-        <v>18600</v>
+      <c r="F32" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="122">
+        <f>9300+1500+7800+20443</f>
+        <v>39043</v>
       </c>
       <c r="H32" s="19">
         <f t="shared" si="0"/>
-        <v>20443</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>45010</v>
       </c>
@@ -6260,14 +6604,14 @@
       <c r="E33" s="20">
         <v>4950</v>
       </c>
-      <c r="F33" s="111"/>
-      <c r="G33" s="21"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="122"/>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
         <v>4950</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>45010</v>
       </c>
@@ -6281,14 +6625,14 @@
       <c r="E34" s="20">
         <v>5170</v>
       </c>
-      <c r="F34" s="111"/>
-      <c r="G34" s="21"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="122"/>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
         <v>5170</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>45012</v>
       </c>
@@ -6302,14 +6646,14 @@
       <c r="E35" s="20">
         <v>4400</v>
       </c>
-      <c r="F35" s="111"/>
-      <c r="G35" s="21"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="122"/>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
         <v>4400</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>45012</v>
       </c>
@@ -6323,14 +6667,14 @@
       <c r="E36" s="20">
         <v>6680</v>
       </c>
-      <c r="F36" s="111"/>
-      <c r="G36" s="21"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="122"/>
       <c r="H36" s="19">
         <f t="shared" si="0"/>
         <v>6680</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>45013</v>
       </c>
@@ -6355,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>45013</v>
       </c>
@@ -6363,20 +6707,20 @@
         <v>711</v>
       </c>
       <c r="C38" s="27"/>
-      <c r="D38" s="152" t="s">
+      <c r="D38" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="153">
+      <c r="E38" s="20">
         <v>3260</v>
       </c>
-      <c r="F38" s="111"/>
-      <c r="G38" s="21"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="122"/>
       <c r="H38" s="19">
         <f t="shared" si="0"/>
         <v>3260</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>45013</v>
       </c>
@@ -6390,14 +6734,14 @@
       <c r="E39" s="20">
         <v>715</v>
       </c>
-      <c r="F39" s="111"/>
-      <c r="G39" s="21"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="122"/>
       <c r="H39" s="19">
         <f t="shared" si="0"/>
         <v>715</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>45014</v>
       </c>
@@ -6411,14 +6755,18 @@
       <c r="E40" s="20">
         <v>684</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="21"/>
+      <c r="F40" s="121">
+        <v>45028</v>
+      </c>
+      <c r="G40" s="122">
+        <v>684</v>
+      </c>
       <c r="H40" s="19">
         <f t="shared" si="0"/>
-        <v>684</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>45014</v>
       </c>
@@ -6432,18 +6780,16 @@
       <c r="E41" s="20">
         <v>5520</v>
       </c>
-      <c r="F41" s="111"/>
-      <c r="G41" s="21"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="122"/>
       <c r="H41" s="19">
         <f t="shared" si="0"/>
         <v>5520</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
-      <c r="B42" s="15">
-        <v>715</v>
-      </c>
+      <c r="B42" s="15"/>
       <c r="C42" s="27"/>
       <c r="D42" s="17"/>
       <c r="E42" s="20"/>
@@ -6454,11 +6800,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
-      <c r="B43" s="15">
-        <v>716</v>
-      </c>
+      <c r="B43" s="15"/>
       <c r="C43" s="27"/>
       <c r="D43" s="17"/>
       <c r="E43" s="20"/>
@@ -6469,11 +6813,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
-      <c r="B44" s="15">
-        <v>717</v>
-      </c>
+      <c r="B44" s="15"/>
       <c r="C44" s="27"/>
       <c r="D44" s="17"/>
       <c r="E44" s="20"/>
@@ -6484,259 +6826,223 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="15">
-        <v>718</v>
-      </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="21"/>
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35">
+        <v>0</v>
+      </c>
+      <c r="F45" s="112"/>
+      <c r="G45" s="36"/>
       <c r="H45" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="15">
-        <v>719</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="15">
-        <v>720</v>
-      </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="15">
-        <v>721</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="15">
-        <v>722</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="15">
-        <v>723</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="15">
-        <v>724</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="15">
-        <v>725</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="15">
-        <v>726</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35">
-        <v>0</v>
-      </c>
-      <c r="F54" s="112"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40">
+        <f>SUM(E4:E45)</f>
+        <v>372971</v>
+      </c>
+      <c r="F46" s="113"/>
+      <c r="G46" s="40">
+        <f>SUM(G4:G45)</f>
+        <v>300566</v>
+      </c>
+      <c r="H46" s="41">
+        <f>SUM(H23:H45)</f>
+        <v>72405</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="114"/>
+      <c r="G48" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="44"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="178">
+        <f>E46-G46</f>
+        <v>72405</v>
+      </c>
+      <c r="F50" s="179"/>
+      <c r="G50" s="180"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="43"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="181" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="181"/>
+      <c r="G52" s="181"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="51"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="52"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="58"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="37"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="40">
-        <f>SUM(E4:E54)</f>
-        <v>372971</v>
-      </c>
-      <c r="F55" s="113"/>
-      <c r="G55" s="40">
-        <f>SUM(G4:G54)</f>
-        <v>279439</v>
-      </c>
-      <c r="H55" s="41">
-        <f>SUM(H23:H54)</f>
-        <v>93532</v>
-      </c>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="59"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="58"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="44"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="58"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="37"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="114"/>
-      <c r="G57" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="44"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="59"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="58"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="44"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="59"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="58"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="158">
-        <f>E55-G55</f>
-        <v>93532</v>
-      </c>
-      <c r="F59" s="159"/>
-      <c r="G59" s="160"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="59"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="58"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="37"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="43"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="58"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="37"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="161" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="161"/>
-      <c r="G61" s="161"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="59"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="58"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="115"/>
-      <c r="G62" s="51"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="58"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="52"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="56"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="59"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="64"/>
       <c r="H63" s="58"/>
       <c r="I63" s="2"/>
     </row>
@@ -6749,122 +7055,23 @@
       <c r="F64" s="116"/>
       <c r="G64" s="64"/>
       <c r="H64" s="58"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="59"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="64"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="69"/>
       <c r="H65" s="58"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="116"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="116"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="116"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="116"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="116"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="116"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="116"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="116"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="58"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="117"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E52:G52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6879,11 +7086,11 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G36:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6894,23 +7101,23 @@
     <col min="4" max="4" width="20" style="49" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="76" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" style="81" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -6953,7 +7160,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -6975,7 +7182,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -6998,7 +7205,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -7021,7 +7228,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -7043,7 +7250,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -7065,7 +7272,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -7087,7 +7294,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -7109,7 +7316,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -7131,7 +7338,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -7153,7 +7360,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -7175,7 +7382,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -7197,7 +7404,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -7219,10 +7426,10 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="91">
         <v>45018</v>
       </c>
@@ -7241,10 +7448,10 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="91">
         <v>45019</v>
       </c>
@@ -7263,10 +7470,10 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="91">
         <v>45020</v>
       </c>
@@ -7285,10 +7492,10 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="91">
         <v>45021</v>
       </c>
@@ -7307,10 +7514,10 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="91">
         <v>45022</v>
       </c>
@@ -7329,10 +7536,10 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="91">
         <v>45023</v>
       </c>
@@ -7351,10 +7558,10 @@
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="91">
         <v>45024</v>
       </c>
@@ -7373,10 +7580,10 @@
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="91">
         <v>45025</v>
       </c>
@@ -7395,10 +7602,10 @@
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="91">
         <v>45026</v>
       </c>
@@ -7417,10 +7624,10 @@
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="91">
         <v>45027</v>
       </c>
@@ -7439,10 +7646,10 @@
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="91">
         <v>45028</v>
       </c>
@@ -7461,10 +7668,10 @@
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>2235001.5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="91">
         <v>45029</v>
       </c>
@@ -7490,10 +7697,10 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-172223.79999999981</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B29" s="91">
         <v>45030</v>
       </c>
@@ -7512,10 +7719,10 @@
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-172223.79999999981</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="91">
         <v>45031</v>
       </c>
@@ -7534,7 +7741,7 @@
       <c r="I30" s="99"/>
       <c r="J30" s="100"/>
     </row>
-    <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52">
         <v>45035</v>
       </c>
@@ -7549,11 +7756,20 @@
         <v>2030981</v>
       </c>
       <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="100"/>
-    </row>
-    <row r="32" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="189" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="190"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="158"/>
+    </row>
+    <row r="32" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="82">
         <v>45036</v>
       </c>
@@ -7567,6 +7783,16 @@
         <f t="shared" si="0"/>
         <v>2080331.5</v>
       </c>
+      <c r="H32" s="191"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="162"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="159"/>
+      <c r="P32" s="159"/>
+      <c r="Q32" s="160"/>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="82">
@@ -7582,6 +7808,8 @@
         <f t="shared" si="0"/>
         <v>2142646.5</v>
       </c>
+      <c r="H33" s="191"/>
+      <c r="I33" s="192"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -7597,6 +7825,8 @@
         <f t="shared" si="0"/>
         <v>2169276.5</v>
       </c>
+      <c r="H34" s="191"/>
+      <c r="I34" s="192"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -7612,6 +7842,8 @@
         <f t="shared" si="0"/>
         <v>2197922.5</v>
       </c>
+      <c r="H35" s="191"/>
+      <c r="I35" s="192"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -7627,15 +7859,25 @@
         <f t="shared" si="0"/>
         <v>2235001.5</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="82"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="84"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="192"/>
+    </row>
+    <row r="37" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="90">
+        <v>45044</v>
+      </c>
+      <c r="D37" s="84">
+        <v>172223.8</v>
+      </c>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>2235001.5</v>
-      </c>
+        <v>2407225.2999999998</v>
+      </c>
+      <c r="H37" s="193"/>
+      <c r="I37" s="194"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
@@ -7643,7 +7885,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7652,7 +7894,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7661,7 +7903,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7670,7 +7912,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7679,7 +7921,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -7688,7 +7930,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -7699,7 +7941,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -7710,7 +7952,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -7721,7 +7963,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -7733,7 +7975,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>2235001.5</v>
+        <v>2407225.2999999998</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -7832,8 +8074,9 @@
       <c r="F61"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:J2"/>
+    <mergeCell ref="H31:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7843,25 +8086,2206 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFF00FF"/>
+  </sheetPr>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="164" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="72" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="118" customWidth="1"/>
+    <col min="7" max="7" width="18" style="74" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="165"/>
+      <c r="B2" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="166"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="167">
+        <v>45017</v>
+      </c>
+      <c r="B4" s="15">
+        <v>715</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="18">
+        <v>12848</v>
+      </c>
+      <c r="F4" s="119"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="19">
+        <f t="shared" ref="H4:H54" si="0">E4-G4</f>
+        <v>12848</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="167">
+        <v>45018</v>
+      </c>
+      <c r="B5" s="15">
+        <v>716</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="21">
+        <v>37289</v>
+      </c>
+      <c r="F5" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="21">
+        <f>7112+10200+16180+3797</f>
+        <v>37289</v>
+      </c>
+      <c r="H5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="167">
+        <v>45019</v>
+      </c>
+      <c r="B6" s="15">
+        <v>717</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="21">
+        <v>3300</v>
+      </c>
+      <c r="F6" s="111"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="168">
+        <v>45019</v>
+      </c>
+      <c r="B7" s="15">
+        <v>718</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1705</v>
+      </c>
+      <c r="F7" s="111">
+        <v>45019</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1705</v>
+      </c>
+      <c r="H7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="167">
+        <v>45019</v>
+      </c>
+      <c r="B8" s="15">
+        <v>719</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="21">
+        <v>11420</v>
+      </c>
+      <c r="F8" s="111"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>11420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="167">
+        <v>45020</v>
+      </c>
+      <c r="B9" s="15">
+        <v>720</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="21">
+        <v>4523</v>
+      </c>
+      <c r="F9" s="111">
+        <v>45020</v>
+      </c>
+      <c r="G9" s="21">
+        <v>4523</v>
+      </c>
+      <c r="H9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="167">
+        <v>45021</v>
+      </c>
+      <c r="B10" s="15">
+        <v>721</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="21">
+        <v>21597</v>
+      </c>
+      <c r="F10" s="111"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19">
+        <f t="shared" si="0"/>
+        <v>21597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="167">
+        <v>45022</v>
+      </c>
+      <c r="B11" s="15">
+        <v>722</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="21">
+        <v>48035</v>
+      </c>
+      <c r="F11" s="123">
+        <v>45024</v>
+      </c>
+      <c r="G11" s="124">
+        <v>48035</v>
+      </c>
+      <c r="H11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="167">
+        <v>45022</v>
+      </c>
+      <c r="B12" s="15">
+        <v>723</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="21">
+        <v>8430</v>
+      </c>
+      <c r="F12" s="111"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="19">
+        <f t="shared" si="0"/>
+        <v>8430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="167">
+        <v>45023</v>
+      </c>
+      <c r="B13" s="15">
+        <v>724</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="21">
+        <v>7700</v>
+      </c>
+      <c r="F13" s="111"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19">
+        <f t="shared" si="0"/>
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="167">
+        <v>45023</v>
+      </c>
+      <c r="B14" s="15">
+        <v>725</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="21">
+        <v>9980</v>
+      </c>
+      <c r="F14" s="111"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19">
+        <f t="shared" si="0"/>
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="167">
+        <v>45024</v>
+      </c>
+      <c r="B15" s="15">
+        <v>726</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="21">
+        <v>4950</v>
+      </c>
+      <c r="F15" s="111"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19">
+        <f t="shared" si="0"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="167">
+        <v>45026</v>
+      </c>
+      <c r="B16" s="15">
+        <v>727</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="21">
+        <v>13419</v>
+      </c>
+      <c r="F16" s="111"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="19">
+        <f t="shared" si="0"/>
+        <v>13419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="167">
+        <v>45027</v>
+      </c>
+      <c r="B17" s="15">
+        <v>728</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="21">
+        <v>30836</v>
+      </c>
+      <c r="F17" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="21">
+        <f>5300+5400+20136</f>
+        <v>30836</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="167">
+        <v>45027</v>
+      </c>
+      <c r="B18" s="15">
+        <v>729</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1300</v>
+      </c>
+      <c r="F18" s="111"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="19">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="167">
+        <v>45028</v>
+      </c>
+      <c r="B19" s="15">
+        <v>730</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1595</v>
+      </c>
+      <c r="F19" s="111">
+        <v>45035</v>
+      </c>
+      <c r="G19" s="21">
+        <v>1595</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="167">
+        <v>45031</v>
+      </c>
+      <c r="B20" s="15">
+        <v>731</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="21">
+        <v>20044</v>
+      </c>
+      <c r="F20" s="111"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="19">
+        <f t="shared" si="0"/>
+        <v>20044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="167">
+        <v>45031</v>
+      </c>
+      <c r="B21" s="15">
+        <v>732</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="21">
+        <v>49351</v>
+      </c>
+      <c r="F21" s="111"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="19">
+        <f t="shared" si="0"/>
+        <v>49351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="167">
+        <v>45034</v>
+      </c>
+      <c r="B22" s="15">
+        <v>733</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="147" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="21">
+        <v>16662</v>
+      </c>
+      <c r="F22" s="111"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="19">
+        <f t="shared" si="0"/>
+        <v>16662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="167">
+        <v>45035</v>
+      </c>
+      <c r="B23" s="15">
+        <v>734</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1103</v>
+      </c>
+      <c r="F23" s="111">
+        <v>45043</v>
+      </c>
+      <c r="G23" s="21">
+        <v>1103</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="167">
+        <v>45035</v>
+      </c>
+      <c r="B24" s="15">
+        <v>735</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="21">
+        <v>24871</v>
+      </c>
+      <c r="F24" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="21">
+        <f>15000+9871</f>
+        <v>24871</v>
+      </c>
+      <c r="H24" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="168">
+        <v>45035</v>
+      </c>
+      <c r="B25" s="15">
+        <v>736</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="21">
+        <v>8630</v>
+      </c>
+      <c r="F25" s="111"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="19">
+        <f t="shared" si="0"/>
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="168">
+        <v>45037</v>
+      </c>
+      <c r="B26" s="15">
+        <v>737</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="21">
+        <v>6600</v>
+      </c>
+      <c r="F26" s="111"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="19">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="168">
+        <v>45038</v>
+      </c>
+      <c r="B27" s="15">
+        <v>738</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="21">
+        <v>256</v>
+      </c>
+      <c r="F27" s="111">
+        <v>45038</v>
+      </c>
+      <c r="G27" s="21">
+        <v>256</v>
+      </c>
+      <c r="H27" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="168">
+        <v>45040</v>
+      </c>
+      <c r="B28" s="15">
+        <v>739</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="21">
+        <v>7700</v>
+      </c>
+      <c r="F28" s="111"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="19">
+        <f t="shared" si="0"/>
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="168">
+        <v>45040</v>
+      </c>
+      <c r="B29" s="15">
+        <v>740</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="21">
+        <v>8680</v>
+      </c>
+      <c r="F29" s="111"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="19">
+        <f t="shared" si="0"/>
+        <v>8680</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="168">
+        <v>45041</v>
+      </c>
+      <c r="B30" s="15">
+        <v>741</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="21">
+        <v>8476</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="19">
+        <f t="shared" si="0"/>
+        <v>8476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="168">
+        <v>45042</v>
+      </c>
+      <c r="B31" s="15">
+        <v>742</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="21">
+        <v>10490</v>
+      </c>
+      <c r="F31" s="111"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="19">
+        <f t="shared" si="0"/>
+        <v>10490</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="168">
+        <v>45043</v>
+      </c>
+      <c r="B32" s="15">
+        <v>743</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="21">
+        <v>16992</v>
+      </c>
+      <c r="F32" s="111"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="19">
+        <f t="shared" si="0"/>
+        <v>16992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="168">
+        <v>45043</v>
+      </c>
+      <c r="B33" s="15">
+        <v>744</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="21">
+        <v>1314</v>
+      </c>
+      <c r="F33" s="111"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="19">
+        <f t="shared" si="0"/>
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="168">
+        <v>45044</v>
+      </c>
+      <c r="B34" s="15">
+        <v>745</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="21">
+        <v>700</v>
+      </c>
+      <c r="F34" s="111"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="19">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="168"/>
+      <c r="B35" s="15">
+        <v>746</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="168"/>
+      <c r="B36" s="15">
+        <v>747</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="168"/>
+      <c r="B37" s="15">
+        <v>748</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="168"/>
+      <c r="B38" s="15">
+        <v>749</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="168"/>
+      <c r="B39" s="15">
+        <v>750</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="168"/>
+      <c r="B40" s="15">
+        <v>751</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="168"/>
+      <c r="B41" s="15">
+        <v>752</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="168"/>
+      <c r="B42" s="15">
+        <v>753</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="168"/>
+      <c r="B43" s="15">
+        <v>754</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="168"/>
+      <c r="B44" s="15">
+        <v>755</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="168"/>
+      <c r="B45" s="15">
+        <v>756</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="168"/>
+      <c r="B46" s="15">
+        <v>757</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="168"/>
+      <c r="B47" s="15">
+        <v>758</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="168"/>
+      <c r="B48" s="15">
+        <v>759</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="168"/>
+      <c r="B49" s="15">
+        <v>760</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="168"/>
+      <c r="B50" s="15">
+        <v>761</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="168"/>
+      <c r="B51" s="15">
+        <v>762</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="168"/>
+      <c r="B52" s="15">
+        <v>763</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="168"/>
+      <c r="B53" s="15">
+        <v>764</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="169"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35">
+        <v>0</v>
+      </c>
+      <c r="F54" s="112"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="40">
+        <f>SUM(E4:E54)</f>
+        <v>400796</v>
+      </c>
+      <c r="F55" s="113"/>
+      <c r="G55" s="40">
+        <f>SUM(G4:G54)</f>
+        <v>150213</v>
+      </c>
+      <c r="H55" s="41">
+        <f>SUM(H23:H54)</f>
+        <v>69582</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="114"/>
+      <c r="G57" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="44"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="178">
+        <f>E55-G55</f>
+        <v>250583</v>
+      </c>
+      <c r="F59" s="179"/>
+      <c r="G59" s="180"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="43"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="181" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="181"/>
+      <c r="G61" s="181"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="47"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="51"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="170"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="171"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="171"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="171"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="171"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="171"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="171"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="171"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="116"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="171"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="171"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="171"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="58"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="171"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="117"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E61:G61"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="14" style="76" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="76" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="81" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="Z2" s="155"/>
+    </row>
+    <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="82">
+        <v>45041</v>
+      </c>
+      <c r="C4" s="152">
+        <v>45048</v>
+      </c>
+      <c r="D4" s="84">
+        <v>37267</v>
+      </c>
+      <c r="E4" s="85">
+        <f>D4</f>
+        <v>37267</v>
+      </c>
+      <c r="F4" s="86"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="20">
+        <f>E47+I4</f>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="82">
+        <v>45042</v>
+      </c>
+      <c r="C5" s="152">
+        <v>45048</v>
+      </c>
+      <c r="D5" s="84">
+        <v>41790.5</v>
+      </c>
+      <c r="E5" s="20">
+        <f>E4+D5</f>
+        <v>79057.5</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="20">
+        <f>J4+I5</f>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="82">
+        <v>45043</v>
+      </c>
+      <c r="C6" s="152">
+        <v>45048</v>
+      </c>
+      <c r="D6" s="84">
+        <v>66690.5</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" ref="E6:E47" si="0">E5+D6</f>
+        <v>145748</v>
+      </c>
+      <c r="F6" s="89"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="20">
+        <f t="shared" ref="J6:J29" si="1">J5+I6</f>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="82">
+        <v>45044</v>
+      </c>
+      <c r="C7" s="152">
+        <v>45048</v>
+      </c>
+      <c r="D7" s="84">
+        <v>45694</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>191442</v>
+      </c>
+      <c r="F7" s="89"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="82">
+        <v>45045</v>
+      </c>
+      <c r="C8" s="152">
+        <v>45048</v>
+      </c>
+      <c r="D8" s="84">
+        <v>50773</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>242215</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="82">
+        <v>45046</v>
+      </c>
+      <c r="C9" s="152">
+        <v>45048</v>
+      </c>
+      <c r="D9" s="84">
+        <v>37107</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>279322</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="91">
+        <v>45047</v>
+      </c>
+      <c r="C10" s="172">
+        <v>45056</v>
+      </c>
+      <c r="D10" s="173">
+        <v>32503.5</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>311825.5</v>
+      </c>
+      <c r="G10" s="82"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="91">
+        <v>45048</v>
+      </c>
+      <c r="C11" s="172">
+        <v>45056</v>
+      </c>
+      <c r="D11" s="173">
+        <v>46547</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>358372.5</v>
+      </c>
+      <c r="G11" s="82"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="91">
+        <v>45049</v>
+      </c>
+      <c r="C12" s="172">
+        <v>45056</v>
+      </c>
+      <c r="D12" s="173">
+        <v>59118</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>417490.5</v>
+      </c>
+      <c r="G12" s="82"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="91">
+        <v>45050</v>
+      </c>
+      <c r="C13" s="172">
+        <v>45056</v>
+      </c>
+      <c r="D13" s="173">
+        <v>52328.5</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>469819</v>
+      </c>
+      <c r="G13" s="82"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="91">
+        <v>45051</v>
+      </c>
+      <c r="C14" s="172">
+        <v>45056</v>
+      </c>
+      <c r="D14" s="173">
+        <v>66103</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>535922</v>
+      </c>
+      <c r="G14" s="82"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="91">
+        <v>45052</v>
+      </c>
+      <c r="C15" s="172">
+        <v>45056</v>
+      </c>
+      <c r="D15" s="173">
+        <v>51405</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>587327</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="91">
+        <v>45053</v>
+      </c>
+      <c r="C16" s="172">
+        <v>45056</v>
+      </c>
+      <c r="D16" s="173">
+        <v>64094</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>651421</v>
+      </c>
+      <c r="G16" s="82"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="91">
+        <v>45054</v>
+      </c>
+      <c r="C17" s="172">
+        <v>45056</v>
+      </c>
+      <c r="D17" s="173">
+        <v>91260.5</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>742681.5</v>
+      </c>
+      <c r="G17" s="82"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="91">
+        <v>45055</v>
+      </c>
+      <c r="C18" s="195">
+        <v>45065</v>
+      </c>
+      <c r="D18" s="196">
+        <v>83287</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>825968.5</v>
+      </c>
+      <c r="G18" s="82"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="91">
+        <v>45056</v>
+      </c>
+      <c r="C19" s="195">
+        <v>45065</v>
+      </c>
+      <c r="D19" s="196">
+        <v>47443.5</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="0"/>
+        <v>873412</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="91">
+        <v>45057</v>
+      </c>
+      <c r="C20" s="195">
+        <v>45065</v>
+      </c>
+      <c r="D20" s="196">
+        <v>65642.5</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="0"/>
+        <v>939054.5</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="91">
+        <v>45058</v>
+      </c>
+      <c r="C21" s="195">
+        <v>45065</v>
+      </c>
+      <c r="D21" s="196">
+        <v>75016</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="0"/>
+        <v>1014070.5</v>
+      </c>
+      <c r="G21" s="82"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="91">
+        <v>45059</v>
+      </c>
+      <c r="C22" s="195">
+        <v>45065</v>
+      </c>
+      <c r="D22" s="196">
+        <v>34165</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="0"/>
+        <v>1048235.5</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="91">
+        <v>45060</v>
+      </c>
+      <c r="C23" s="195">
+        <v>45065</v>
+      </c>
+      <c r="D23" s="196">
+        <v>31658</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="0"/>
+        <v>1079893.5</v>
+      </c>
+      <c r="G23" s="82"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="91">
+        <v>45061</v>
+      </c>
+      <c r="C24" s="195">
+        <v>45065</v>
+      </c>
+      <c r="D24" s="196">
+        <v>55417.5</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" si="0"/>
+        <v>1135311</v>
+      </c>
+      <c r="G24" s="82"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="91">
+        <v>45062</v>
+      </c>
+      <c r="C25" s="195">
+        <v>45065</v>
+      </c>
+      <c r="D25" s="196">
+        <v>62175</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="0"/>
+        <v>1197486</v>
+      </c>
+      <c r="G25" s="82"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="91">
+        <v>45063</v>
+      </c>
+      <c r="C26" s="195">
+        <v>45065</v>
+      </c>
+      <c r="D26" s="196">
+        <v>58798</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+      <c r="G26" s="82"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="91"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+      <c r="G27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="20">
+        <f t="shared" si="1"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="91"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+      <c r="F28" s="97"/>
+      <c r="G28" s="146">
+        <v>45044</v>
+      </c>
+      <c r="H28" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="145">
+        <v>-1819523.27</v>
+      </c>
+      <c r="J28" s="20">
+        <f t="shared" si="1"/>
+        <v>-563239.27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="91"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="20">
+        <f t="shared" si="1"/>
+        <v>-563239.27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="91"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="100"/>
+    </row>
+    <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="52"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="100"/>
+    </row>
+    <row r="32" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="82"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="82"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="82"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="82"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="82"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="82"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="82"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="82"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="82"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="82"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="82"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="82"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+      <c r="I43" s="126"/>
+      <c r="J43" s="125"/>
+    </row>
+    <row r="44" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="82"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+      <c r="I44" s="126"/>
+      <c r="J44" s="125"/>
+    </row>
+    <row r="45" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="82"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+      <c r="I45" s="126"/>
+      <c r="J45" s="125"/>
+    </row>
+    <row r="46" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="82"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+      <c r="F46"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="125"/>
+    </row>
+    <row r="47" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="82"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="20">
+        <f t="shared" si="0"/>
+        <v>1256284</v>
+      </c>
+      <c r="F47"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="125"/>
+    </row>
+    <row r="48" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="81"/>
+      <c r="D48"/>
+      <c r="E48" s="104"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C49" s="81"/>
+      <c r="D49"/>
+      <c r="E49" s="104"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C50" s="81"/>
+      <c r="D50"/>
+      <c r="E50" s="104"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C51" s="81"/>
+      <c r="D51"/>
+      <c r="E51" s="104"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C52" s="81"/>
+      <c r="D52"/>
+      <c r="E52" s="104"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C53" s="81"/>
+      <c r="D53"/>
+      <c r="E53" s="104"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B54" s="132"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="132"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="132"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="135"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="132"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="135"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="132"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="135"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="132"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="2:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="135"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="132"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" s="139"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="132"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="139"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/CREDITOS     ZAVALETA   ABRIL     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/CREDITOS     ZAVALETA   ABRIL     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="   A B R I L    2 0 2 3    " sheetId="7" r:id="rId6"/>
     <sheet name="PAGO ZAVALETA  &amp; OBRADOR  Abril" sheetId="8" r:id="rId7"/>
     <sheet name="Hoja2" sheetId="9" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="10" r:id="rId9"/>
+    <sheet name="Hoja3" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="56">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -1326,6 +1328,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="33" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="34" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1389,10 +1395,6 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="34" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2285,10 +2287,10 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2305,25 +2307,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="178"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="B2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3090,12 +3092,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="178">
+      <c r="E37" s="180">
         <f>E33-G33</f>
         <v>0</v>
       </c>
-      <c r="F37" s="179"/>
-      <c r="G37" s="180"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="182"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3111,11 +3113,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="181" t="s">
+      <c r="E39" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="181"/>
-      <c r="G39" s="181"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3267,6 +3269,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3297,17 +3313,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -3634,10 +3650,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="183" t="s">
+      <c r="H17" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="184"/>
+      <c r="I17" s="186"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3658,8 +3674,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="186"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="188"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3680,8 +3696,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="186"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="188"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3702,8 +3718,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="186"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="188"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3724,8 +3740,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="186"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="188"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3746,8 +3762,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="186"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="188"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3768,8 +3784,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="186"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="188"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3790,8 +3806,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="186"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="188"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3812,8 +3828,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="186"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="188"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3834,8 +3850,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="188"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="190"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4318,7 +4334,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35:G35"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4335,25 +4351,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="178"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="B2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5627,12 +5643,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="178">
+      <c r="E59" s="180">
         <f>E55-G55</f>
         <v>12119</v>
       </c>
-      <c r="F59" s="179"/>
-      <c r="G59" s="180"/>
+      <c r="F59" s="181"/>
+      <c r="G59" s="182"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5648,11 +5664,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="181" t="s">
+      <c r="E61" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="181"/>
-      <c r="G61" s="181"/>
+      <c r="F61" s="183"/>
+      <c r="G61" s="183"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5816,7 +5832,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5833,25 +5849,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="178"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="B2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6398,11 +6414,15 @@
       <c r="E24" s="20">
         <v>7730</v>
       </c>
-      <c r="F24" s="121"/>
-      <c r="G24" s="122"/>
+      <c r="F24" s="121">
+        <v>45050</v>
+      </c>
+      <c r="G24" s="122">
+        <v>7730</v>
+      </c>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
-        <v>7730</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -6419,11 +6439,15 @@
       <c r="E25" s="20">
         <v>5020</v>
       </c>
-      <c r="F25" s="121"/>
-      <c r="G25" s="122"/>
+      <c r="F25" s="121">
+        <v>45050</v>
+      </c>
+      <c r="G25" s="122">
+        <v>5020</v>
+      </c>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
-        <v>5020</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -6440,11 +6464,15 @@
       <c r="E26" s="20">
         <v>21400</v>
       </c>
-      <c r="F26" s="121"/>
-      <c r="G26" s="122"/>
+      <c r="F26" s="121">
+        <v>45050</v>
+      </c>
+      <c r="G26" s="122">
+        <v>21400</v>
+      </c>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
-        <v>21400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6486,11 +6514,15 @@
       <c r="E28" s="20">
         <v>2610</v>
       </c>
-      <c r="F28" s="121"/>
-      <c r="G28" s="122"/>
+      <c r="F28" s="121">
+        <v>45050</v>
+      </c>
+      <c r="G28" s="122">
+        <v>2610</v>
+      </c>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
-        <v>2610</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -6507,11 +6539,15 @@
       <c r="E29" s="20">
         <v>4950</v>
       </c>
-      <c r="F29" s="121"/>
-      <c r="G29" s="122"/>
+      <c r="F29" s="121">
+        <v>45050</v>
+      </c>
+      <c r="G29" s="122">
+        <v>4950</v>
+      </c>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -6604,11 +6640,15 @@
       <c r="E33" s="20">
         <v>4950</v>
       </c>
-      <c r="F33" s="121"/>
-      <c r="G33" s="122"/>
+      <c r="F33" s="121">
+        <v>45050</v>
+      </c>
+      <c r="G33" s="122">
+        <v>4950</v>
+      </c>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -6625,11 +6665,15 @@
       <c r="E34" s="20">
         <v>5170</v>
       </c>
-      <c r="F34" s="121"/>
-      <c r="G34" s="122"/>
+      <c r="F34" s="121">
+        <v>45050</v>
+      </c>
+      <c r="G34" s="122">
+        <v>5170</v>
+      </c>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
-        <v>5170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -6646,11 +6690,15 @@
       <c r="E35" s="20">
         <v>4400</v>
       </c>
-      <c r="F35" s="121"/>
-      <c r="G35" s="122"/>
+      <c r="F35" s="121">
+        <v>45050</v>
+      </c>
+      <c r="G35" s="122">
+        <v>4400</v>
+      </c>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
-        <v>4400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -6667,11 +6715,15 @@
       <c r="E36" s="20">
         <v>6680</v>
       </c>
-      <c r="F36" s="121"/>
-      <c r="G36" s="122"/>
+      <c r="F36" s="121">
+        <v>45050</v>
+      </c>
+      <c r="G36" s="122">
+        <v>6680</v>
+      </c>
       <c r="H36" s="19">
         <f t="shared" si="0"/>
-        <v>6680</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -6713,11 +6765,15 @@
       <c r="E38" s="20">
         <v>3260</v>
       </c>
-      <c r="F38" s="121"/>
-      <c r="G38" s="122"/>
+      <c r="F38" s="121">
+        <v>45050</v>
+      </c>
+      <c r="G38" s="122">
+        <v>3260</v>
+      </c>
       <c r="H38" s="19">
         <f t="shared" si="0"/>
-        <v>3260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -6734,11 +6790,15 @@
       <c r="E39" s="20">
         <v>715</v>
       </c>
-      <c r="F39" s="121"/>
-      <c r="G39" s="122"/>
+      <c r="F39" s="121">
+        <v>45050</v>
+      </c>
+      <c r="G39" s="122">
+        <v>715</v>
+      </c>
       <c r="H39" s="19">
         <f t="shared" si="0"/>
-        <v>715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -6780,11 +6840,15 @@
       <c r="E41" s="20">
         <v>5520</v>
       </c>
-      <c r="F41" s="121"/>
-      <c r="G41" s="122"/>
+      <c r="F41" s="121">
+        <v>45050</v>
+      </c>
+      <c r="G41" s="122">
+        <v>5520</v>
+      </c>
       <c r="H41" s="19">
         <f t="shared" si="0"/>
-        <v>5520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6853,11 +6917,11 @@
       <c r="F46" s="113"/>
       <c r="G46" s="40">
         <f>SUM(G4:G45)</f>
-        <v>300566</v>
+        <v>372971</v>
       </c>
       <c r="H46" s="41">
         <f>SUM(H23:H45)</f>
-        <v>72405</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -6899,12 +6963,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="178">
+      <c r="E50" s="180">
         <f>E46-G46</f>
-        <v>72405</v>
-      </c>
-      <c r="F50" s="179"/>
-      <c r="G50" s="180"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="181"/>
+      <c r="G50" s="182"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -6920,11 +6984,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="181" t="s">
+      <c r="E52" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="181"/>
-      <c r="G52" s="181"/>
+      <c r="F52" s="183"/>
+      <c r="G52" s="183"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -7087,7 +7151,7 @@
   <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="G37" sqref="G36:G37"/>
@@ -7107,17 +7171,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -7756,10 +7820,10 @@
         <v>2030981</v>
       </c>
       <c r="G31" s="99"/>
-      <c r="H31" s="189" t="s">
+      <c r="H31" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="190"/>
+      <c r="I31" s="192"/>
       <c r="J31" s="163"/>
       <c r="K31" s="161"/>
       <c r="L31" s="161"/>
@@ -7783,8 +7847,8 @@
         <f t="shared" si="0"/>
         <v>2080331.5</v>
       </c>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="194"/>
       <c r="J32" s="162"/>
       <c r="K32" s="162"/>
       <c r="L32" s="162"/>
@@ -7808,8 +7872,8 @@
         <f t="shared" si="0"/>
         <v>2142646.5</v>
       </c>
-      <c r="H33" s="191"/>
-      <c r="I33" s="192"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="194"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -7825,8 +7889,8 @@
         <f t="shared" si="0"/>
         <v>2169276.5</v>
       </c>
-      <c r="H34" s="191"/>
-      <c r="I34" s="192"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="194"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -7842,8 +7906,8 @@
         <f t="shared" si="0"/>
         <v>2197922.5</v>
       </c>
-      <c r="H35" s="191"/>
-      <c r="I35" s="192"/>
+      <c r="H35" s="193"/>
+      <c r="I35" s="194"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -7859,8 +7923,8 @@
         <f t="shared" si="0"/>
         <v>2235001.5</v>
       </c>
-      <c r="H36" s="191"/>
-      <c r="I36" s="192"/>
+      <c r="H36" s="193"/>
+      <c r="I36" s="194"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="156" t="s">
@@ -7876,8 +7940,8 @@
         <f t="shared" si="0"/>
         <v>2407225.2999999998</v>
       </c>
-      <c r="H37" s="193"/>
-      <c r="I37" s="194"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="196"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
@@ -8091,8 +8155,8 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8109,25 +8173,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="178"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="165"/>
-      <c r="B2" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="B2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8171,11 +8235,15 @@
       <c r="E4" s="18">
         <v>12848</v>
       </c>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
+      <c r="F4" s="119">
+        <v>45050</v>
+      </c>
+      <c r="G4" s="120">
+        <v>12848</v>
+      </c>
       <c r="H4" s="19">
         <f t="shared" ref="H4:H54" si="0">E4-G4</f>
-        <v>12848</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -8219,11 +8287,15 @@
       <c r="E6" s="21">
         <v>3300</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G6" s="21">
+        <v>3300</v>
+      </c>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8265,11 +8337,15 @@
       <c r="E8" s="21">
         <v>11420</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G8" s="21">
+        <v>11420</v>
+      </c>
       <c r="H8" s="25">
         <f t="shared" si="0"/>
-        <v>11420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8311,11 +8387,15 @@
       <c r="E10" s="21">
         <v>21597</v>
       </c>
-      <c r="F10" s="111"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G10" s="21">
+        <v>21597</v>
+      </c>
       <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v>21597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8357,11 +8437,15 @@
       <c r="E12" s="21">
         <v>8430</v>
       </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G12" s="21">
+        <v>8430</v>
+      </c>
       <c r="H12" s="19">
         <f t="shared" si="0"/>
-        <v>8430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -8378,11 +8462,15 @@
       <c r="E13" s="21">
         <v>7700</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G13" s="21">
+        <v>7700</v>
+      </c>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>7700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -8399,11 +8487,15 @@
       <c r="E14" s="21">
         <v>9980</v>
       </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G14" s="21">
+        <v>9980</v>
+      </c>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>9980</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -8420,11 +8512,15 @@
       <c r="E15" s="21">
         <v>4950</v>
       </c>
-      <c r="F15" s="111"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G15" s="21">
+        <v>4950</v>
+      </c>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -8441,11 +8537,15 @@
       <c r="E16" s="21">
         <v>13419</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G16" s="21">
+        <v>13419</v>
+      </c>
       <c r="H16" s="19">
         <f t="shared" si="0"/>
-        <v>13419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -8488,11 +8588,15 @@
       <c r="E18" s="21">
         <v>1300</v>
       </c>
-      <c r="F18" s="111"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G18" s="21">
+        <v>1300</v>
+      </c>
       <c r="H18" s="19">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8534,11 +8638,15 @@
       <c r="E20" s="21">
         <v>20044</v>
       </c>
-      <c r="F20" s="111"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G20" s="21">
+        <v>20044</v>
+      </c>
       <c r="H20" s="19">
         <f t="shared" si="0"/>
-        <v>20044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8555,11 +8663,15 @@
       <c r="E21" s="21">
         <v>49351</v>
       </c>
-      <c r="F21" s="111"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G21" s="21">
+        <v>49351</v>
+      </c>
       <c r="H21" s="19">
         <f t="shared" si="0"/>
-        <v>49351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8576,11 +8688,15 @@
       <c r="E22" s="21">
         <v>16662</v>
       </c>
-      <c r="F22" s="111"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G22" s="21">
+        <v>16662</v>
+      </c>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
-        <v>16662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -8648,11 +8764,15 @@
       <c r="E25" s="21">
         <v>8630</v>
       </c>
-      <c r="F25" s="111"/>
-      <c r="G25" s="21"/>
+      <c r="F25" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G25" s="21">
+        <v>8630</v>
+      </c>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
-        <v>8630</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -8669,11 +8789,15 @@
       <c r="E26" s="21">
         <v>6600</v>
       </c>
-      <c r="F26" s="111"/>
-      <c r="G26" s="21"/>
+      <c r="F26" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G26" s="21">
+        <v>6600</v>
+      </c>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -8715,11 +8839,15 @@
       <c r="E28" s="21">
         <v>7700</v>
       </c>
-      <c r="F28" s="111"/>
-      <c r="G28" s="21"/>
+      <c r="F28" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G28" s="21">
+        <v>7700</v>
+      </c>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
-        <v>7700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8736,11 +8864,15 @@
       <c r="E29" s="21">
         <v>8680</v>
       </c>
-      <c r="F29" s="111"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G29" s="21">
+        <v>8680</v>
+      </c>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
-        <v>8680</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -8757,11 +8889,15 @@
       <c r="E30" s="21">
         <v>8476</v>
       </c>
-      <c r="F30" s="111"/>
-      <c r="G30" s="21"/>
+      <c r="F30" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G30" s="21">
+        <v>8476</v>
+      </c>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
-        <v>8476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -8778,11 +8914,15 @@
       <c r="E31" s="21">
         <v>10490</v>
       </c>
-      <c r="F31" s="111"/>
-      <c r="G31" s="21"/>
+      <c r="F31" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G31" s="21">
+        <v>10490</v>
+      </c>
       <c r="H31" s="19">
         <f t="shared" si="0"/>
-        <v>10490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -8799,11 +8939,15 @@
       <c r="E32" s="21">
         <v>16992</v>
       </c>
-      <c r="F32" s="111"/>
-      <c r="G32" s="21"/>
+      <c r="F32" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G32" s="21">
+        <v>16992</v>
+      </c>
       <c r="H32" s="19">
         <f t="shared" si="0"/>
-        <v>16992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -8820,11 +8964,15 @@
       <c r="E33" s="21">
         <v>1314</v>
       </c>
-      <c r="F33" s="111"/>
-      <c r="G33" s="21"/>
+      <c r="F33" s="111">
+        <v>45049</v>
+      </c>
+      <c r="G33" s="21">
+        <v>1314</v>
+      </c>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
-        <v>1314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -8841,86 +8989,128 @@
       <c r="E34" s="21">
         <v>700</v>
       </c>
-      <c r="F34" s="111"/>
-      <c r="G34" s="21"/>
+      <c r="F34" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G34" s="21">
+        <v>700</v>
+      </c>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="168"/>
+      <c r="A35" s="168">
+        <v>45045</v>
+      </c>
       <c r="B35" s="15">
         <v>746</v>
       </c>
       <c r="C35" s="27"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="21"/>
+      <c r="D35" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="21">
+        <v>11000</v>
+      </c>
+      <c r="F35" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G35" s="21">
+        <v>11000</v>
+      </c>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="168"/>
+      <c r="A36" s="168">
+        <v>45047</v>
+      </c>
       <c r="B36" s="15">
         <v>747</v>
       </c>
       <c r="C36" s="27"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="21"/>
+      <c r="D36" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="21">
+        <v>18424</v>
+      </c>
+      <c r="F36" s="111">
+        <v>45050</v>
+      </c>
+      <c r="G36" s="21">
+        <v>18424</v>
+      </c>
       <c r="H36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="168"/>
+      <c r="A37" s="168">
+        <v>45049</v>
+      </c>
       <c r="B37" s="15">
         <v>748</v>
       </c>
       <c r="C37" s="27"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="21">
+        <v>10015</v>
+      </c>
       <c r="F37" s="111"/>
       <c r="G37" s="21"/>
       <c r="H37" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="168"/>
+      <c r="A38" s="168">
+        <v>45049</v>
+      </c>
       <c r="B38" s="15">
         <v>749</v>
       </c>
       <c r="C38" s="27"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="21"/>
+      <c r="D38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="21">
+        <v>817</v>
+      </c>
       <c r="F38" s="111"/>
       <c r="G38" s="21"/>
       <c r="H38" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>817</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="168"/>
+      <c r="A39" s="168">
+        <v>45049</v>
+      </c>
       <c r="B39" s="15">
         <v>750</v>
       </c>
       <c r="C39" s="27"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="21"/>
+      <c r="D39" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="21">
+        <v>993</v>
+      </c>
       <c r="F39" s="111"/>
       <c r="G39" s="21"/>
       <c r="H39" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>993</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -9155,16 +9345,16 @@
       <c r="D55" s="39"/>
       <c r="E55" s="40">
         <f>SUM(E4:E54)</f>
-        <v>400796</v>
+        <v>442045</v>
       </c>
       <c r="F55" s="113"/>
       <c r="G55" s="40">
         <f>SUM(G4:G54)</f>
-        <v>150213</v>
+        <v>430220</v>
       </c>
       <c r="H55" s="41">
         <f>SUM(H23:H54)</f>
-        <v>69582</v>
+        <v>11825</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -9206,12 +9396,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="178">
+      <c r="E59" s="180">
         <f>E55-G55</f>
-        <v>250583</v>
-      </c>
-      <c r="F59" s="179"/>
-      <c r="G59" s="180"/>
+        <v>11825</v>
+      </c>
+      <c r="F59" s="181"/>
+      <c r="G59" s="182"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -9227,11 +9417,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="181" t="s">
+      <c r="E61" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="181"/>
-      <c r="G61" s="181"/>
+      <c r="F61" s="183"/>
+      <c r="G61" s="183"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -9392,7 +9582,7 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -9410,17 +9600,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="Z2" s="155"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -9756,10 +9946,10 @@
       <c r="B18" s="91">
         <v>45055</v>
       </c>
-      <c r="C18" s="195">
+      <c r="C18" s="174">
         <v>45065</v>
       </c>
-      <c r="D18" s="196">
+      <c r="D18" s="175">
         <v>83287</v>
       </c>
       <c r="E18" s="20">
@@ -9778,10 +9968,10 @@
       <c r="B19" s="91">
         <v>45056</v>
       </c>
-      <c r="C19" s="195">
+      <c r="C19" s="174">
         <v>45065</v>
       </c>
-      <c r="D19" s="196">
+      <c r="D19" s="175">
         <v>47443.5</v>
       </c>
       <c r="E19" s="20">
@@ -9800,10 +9990,10 @@
       <c r="B20" s="91">
         <v>45057</v>
       </c>
-      <c r="C20" s="195">
+      <c r="C20" s="174">
         <v>45065</v>
       </c>
-      <c r="D20" s="196">
+      <c r="D20" s="175">
         <v>65642.5</v>
       </c>
       <c r="E20" s="20">
@@ -9822,10 +10012,10 @@
       <c r="B21" s="91">
         <v>45058</v>
       </c>
-      <c r="C21" s="195">
+      <c r="C21" s="174">
         <v>45065</v>
       </c>
-      <c r="D21" s="196">
+      <c r="D21" s="175">
         <v>75016</v>
       </c>
       <c r="E21" s="20">
@@ -9844,10 +10034,10 @@
       <c r="B22" s="91">
         <v>45059</v>
       </c>
-      <c r="C22" s="195">
+      <c r="C22" s="174">
         <v>45065</v>
       </c>
-      <c r="D22" s="196">
+      <c r="D22" s="175">
         <v>34165</v>
       </c>
       <c r="E22" s="20">
@@ -9866,10 +10056,10 @@
       <c r="B23" s="91">
         <v>45060</v>
       </c>
-      <c r="C23" s="195">
+      <c r="C23" s="174">
         <v>45065</v>
       </c>
-      <c r="D23" s="196">
+      <c r="D23" s="175">
         <v>31658</v>
       </c>
       <c r="E23" s="20">
@@ -9888,10 +10078,10 @@
       <c r="B24" s="91">
         <v>45061</v>
       </c>
-      <c r="C24" s="195">
+      <c r="C24" s="174">
         <v>45065</v>
       </c>
-      <c r="D24" s="196">
+      <c r="D24" s="175">
         <v>55417.5</v>
       </c>
       <c r="E24" s="20">
@@ -9910,10 +10100,10 @@
       <c r="B25" s="91">
         <v>45062</v>
       </c>
-      <c r="C25" s="195">
+      <c r="C25" s="174">
         <v>45065</v>
       </c>
-      <c r="D25" s="196">
+      <c r="D25" s="175">
         <v>62175</v>
       </c>
       <c r="E25" s="20">
@@ -9932,10 +10122,10 @@
       <c r="B26" s="91">
         <v>45063</v>
       </c>
-      <c r="C26" s="195">
+      <c r="C26" s="174">
         <v>45065</v>
       </c>
-      <c r="D26" s="196">
+      <c r="D26" s="175">
         <v>58798</v>
       </c>
       <c r="E26" s="20">
@@ -9952,8 +10142,8 @@
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="91"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="196"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="175"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
         <v>1256284</v>
@@ -9968,8 +10158,8 @@
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="91"/>
-      <c r="C28" s="195"/>
-      <c r="D28" s="196"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="175"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
         <v>1256284</v>
@@ -9991,8 +10181,8 @@
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B29" s="91"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="175"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
         <v>1256284</v>
@@ -10299,4 +10489,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/CREDITOS     ZAVALETA   ABRIL     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/CREDITOS     ZAVALETA   ABRIL     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -522,13 +522,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF3399FF"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,7 +969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1267,12 +1273,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1328,73 +1328,81 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="33" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="34" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1404,6 +1412,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
       <color rgb="FF3399FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF0000FF"/>
@@ -1412,7 +1421,6 @@
       <color rgb="FFCC6600"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF9900"/>
-      <color rgb="FF99FF99"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
@@ -1861,13 +1869,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1914,13 +1922,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2307,25 +2315,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="178"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="174"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
+      <c r="B2" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3092,12 +3100,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="180">
+      <c r="E37" s="176">
         <f>E33-G33</f>
         <v>0</v>
       </c>
-      <c r="F37" s="181"/>
-      <c r="G37" s="182"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="178"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3113,11 +3121,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="183" t="s">
+      <c r="E39" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="179"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3313,17 +3321,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -3650,10 +3658,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="185" t="s">
+      <c r="H17" s="181" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="186"/>
+      <c r="I17" s="182"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3674,8 +3682,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="188"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="184"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3696,8 +3704,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="188"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="184"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3718,8 +3726,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="188"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="184"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3740,8 +3748,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="188"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="184"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3762,8 +3770,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="188"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="184"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3784,8 +3792,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="188"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="184"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3806,8 +3814,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="188"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="184"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3828,8 +3836,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="188"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="184"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3850,8 +3858,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="189"/>
-      <c r="I26" s="190"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="186"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4331,7 +4339,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
@@ -4351,25 +4359,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="178"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="174"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
+      <c r="B2" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5643,12 +5651,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="180">
+      <c r="E59" s="176">
         <f>E55-G55</f>
         <v>12119</v>
       </c>
-      <c r="F59" s="181"/>
-      <c r="G59" s="182"/>
+      <c r="F59" s="177"/>
+      <c r="G59" s="178"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5664,11 +5672,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="183" t="s">
+      <c r="E61" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="183"/>
-      <c r="G61" s="183"/>
+      <c r="F61" s="179"/>
+      <c r="G61" s="179"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5849,25 +5857,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="178"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="174"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
+      <c r="B2" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6963,12 +6971,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="180">
+      <c r="E50" s="176">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="181"/>
-      <c r="G50" s="182"/>
+      <c r="F50" s="177"/>
+      <c r="G50" s="178"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -6984,11 +6992,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="183" t="s">
+      <c r="E52" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="183"/>
-      <c r="G52" s="183"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="179"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -7171,17 +7179,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -7820,18 +7828,18 @@
         <v>2030981</v>
       </c>
       <c r="G31" s="99"/>
-      <c r="H31" s="191" t="s">
+      <c r="H31" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="192"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="158"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="155"/>
+      <c r="P31" s="155"/>
+      <c r="Q31" s="156"/>
     </row>
     <row r="32" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="82">
@@ -7847,16 +7855,16 @@
         <f t="shared" si="0"/>
         <v>2080331.5</v>
       </c>
-      <c r="H32" s="193"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="162"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="159"/>
-      <c r="Q32" s="160"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="190"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="157"/>
+      <c r="P32" s="157"/>
+      <c r="Q32" s="158"/>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="82">
@@ -7872,8 +7880,8 @@
         <f t="shared" si="0"/>
         <v>2142646.5</v>
       </c>
-      <c r="H33" s="193"/>
-      <c r="I33" s="194"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="190"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -7889,8 +7897,8 @@
         <f t="shared" si="0"/>
         <v>2169276.5</v>
       </c>
-      <c r="H34" s="193"/>
-      <c r="I34" s="194"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="190"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -7906,8 +7914,8 @@
         <f t="shared" si="0"/>
         <v>2197922.5</v>
       </c>
-      <c r="H35" s="193"/>
-      <c r="I35" s="194"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="190"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -7923,11 +7931,11 @@
         <f t="shared" si="0"/>
         <v>2235001.5</v>
       </c>
-      <c r="H36" s="193"/>
-      <c r="I36" s="194"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="190"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="156" t="s">
+      <c r="B37" s="154" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="90">
@@ -7940,8 +7948,8 @@
         <f t="shared" si="0"/>
         <v>2407225.2999999998</v>
       </c>
-      <c r="H37" s="195"/>
-      <c r="I37" s="196"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="192"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
@@ -8153,15 +8161,15 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="164" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="162" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="70" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="71" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" style="72" customWidth="1"/>
@@ -8173,31 +8181,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="178"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="174"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="165"/>
-      <c r="B2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="166"/>
+      <c r="A3" s="164"/>
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -8222,7 +8230,7 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="167">
+      <c r="A4" s="165">
         <v>45017</v>
       </c>
       <c r="B4" s="15">
@@ -8242,13 +8250,13 @@
         <v>12848</v>
       </c>
       <c r="H4" s="19">
-        <f t="shared" ref="H4:H54" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H42" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="167">
+      <c r="A5" s="165">
         <v>45018</v>
       </c>
       <c r="B5" s="15">
@@ -8274,7 +8282,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="167">
+      <c r="A6" s="165">
         <v>45019</v>
       </c>
       <c r="B6" s="15">
@@ -8299,7 +8307,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="168">
+      <c r="A7" s="166">
         <v>45019</v>
       </c>
       <c r="B7" s="15">
@@ -8324,7 +8332,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="167">
+      <c r="A8" s="165">
         <v>45019</v>
       </c>
       <c r="B8" s="15">
@@ -8349,7 +8357,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="167">
+      <c r="A9" s="165">
         <v>45020</v>
       </c>
       <c r="B9" s="15">
@@ -8374,7 +8382,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="167">
+      <c r="A10" s="165">
         <v>45021</v>
       </c>
       <c r="B10" s="15">
@@ -8399,7 +8407,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="167">
+      <c r="A11" s="165">
         <v>45022</v>
       </c>
       <c r="B11" s="15">
@@ -8424,7 +8432,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="167">
+      <c r="A12" s="165">
         <v>45022</v>
       </c>
       <c r="B12" s="15">
@@ -8449,7 +8457,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="167">
+      <c r="A13" s="165">
         <v>45023</v>
       </c>
       <c r="B13" s="15">
@@ -8474,7 +8482,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="167">
+      <c r="A14" s="165">
         <v>45023</v>
       </c>
       <c r="B14" s="15">
@@ -8499,7 +8507,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="167">
+      <c r="A15" s="165">
         <v>45024</v>
       </c>
       <c r="B15" s="15">
@@ -8524,7 +8532,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="167">
+      <c r="A16" s="165">
         <v>45026</v>
       </c>
       <c r="B16" s="15">
@@ -8549,7 +8557,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="167">
+      <c r="A17" s="165">
         <v>45027</v>
       </c>
       <c r="B17" s="15">
@@ -8575,7 +8583,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="167">
+      <c r="A18" s="165">
         <v>45027</v>
       </c>
       <c r="B18" s="15">
@@ -8600,7 +8608,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="167">
+      <c r="A19" s="165">
         <v>45028</v>
       </c>
       <c r="B19" s="15">
@@ -8625,7 +8633,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="167">
+      <c r="A20" s="165">
         <v>45031</v>
       </c>
       <c r="B20" s="15">
@@ -8650,7 +8658,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="167">
+      <c r="A21" s="165">
         <v>45031</v>
       </c>
       <c r="B21" s="15">
@@ -8675,7 +8683,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="167">
+      <c r="A22" s="165">
         <v>45034</v>
       </c>
       <c r="B22" s="15">
@@ -8700,7 +8708,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="167">
+      <c r="A23" s="165">
         <v>45035</v>
       </c>
       <c r="B23" s="15">
@@ -8725,7 +8733,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="167">
+      <c r="A24" s="165">
         <v>45035</v>
       </c>
       <c r="B24" s="15">
@@ -8751,7 +8759,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="168">
+      <c r="A25" s="166">
         <v>45035</v>
       </c>
       <c r="B25" s="15">
@@ -8776,7 +8784,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="168">
+      <c r="A26" s="166">
         <v>45037</v>
       </c>
       <c r="B26" s="15">
@@ -8801,7 +8809,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="168">
+      <c r="A27" s="166">
         <v>45038</v>
       </c>
       <c r="B27" s="15">
@@ -8826,7 +8834,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="168">
+      <c r="A28" s="166">
         <v>45040</v>
       </c>
       <c r="B28" s="15">
@@ -8851,7 +8859,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="168">
+      <c r="A29" s="166">
         <v>45040</v>
       </c>
       <c r="B29" s="15">
@@ -8876,7 +8884,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="168">
+      <c r="A30" s="166">
         <v>45041</v>
       </c>
       <c r="B30" s="15">
@@ -8901,7 +8909,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="168">
+      <c r="A31" s="166">
         <v>45042</v>
       </c>
       <c r="B31" s="15">
@@ -8926,7 +8934,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="168">
+      <c r="A32" s="166">
         <v>45043</v>
       </c>
       <c r="B32" s="15">
@@ -8950,8 +8958,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="168">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="166">
         <v>45043</v>
       </c>
       <c r="B33" s="15">
@@ -8975,8 +8983,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="168">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="166">
         <v>45044</v>
       </c>
       <c r="B34" s="15">
@@ -9000,8 +9008,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="168">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="166">
         <v>45045</v>
       </c>
       <c r="B35" s="15">
@@ -9025,8 +9033,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="168">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="166">
         <v>45047</v>
       </c>
       <c r="B36" s="15">
@@ -9050,8 +9058,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="168">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="166">
         <v>45049</v>
       </c>
       <c r="B37" s="15">
@@ -9071,8 +9079,8 @@
         <v>10015</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="168">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="166">
         <v>45049</v>
       </c>
       <c r="B38" s="15">
@@ -9092,8 +9100,8 @@
         <v>817</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="168">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="166">
         <v>45049</v>
       </c>
       <c r="B39" s="15">
@@ -9113,11 +9121,9 @@
         <v>993</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="168"/>
-      <c r="B40" s="15">
-        <v>751</v>
-      </c>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="166"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="27"/>
       <c r="D40" s="17"/>
       <c r="E40" s="21"/>
@@ -9128,11 +9134,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="168"/>
-      <c r="B41" s="15">
-        <v>752</v>
-      </c>
+    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="166"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="27"/>
       <c r="D41" s="17"/>
       <c r="E41" s="21"/>
@@ -9143,432 +9147,252 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="168"/>
-      <c r="B42" s="15">
-        <v>753</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="21"/>
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="167"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35">
+        <v>0</v>
+      </c>
+      <c r="F42" s="112"/>
+      <c r="G42" s="36"/>
       <c r="H42" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="168"/>
-      <c r="B43" s="15">
-        <v>754</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="168"/>
-      <c r="B44" s="15">
-        <v>755</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="168"/>
-      <c r="B45" s="15">
-        <v>756</v>
-      </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="168"/>
-      <c r="B46" s="15">
-        <v>757</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="168"/>
-      <c r="B47" s="15">
-        <v>758</v>
-      </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="168"/>
-      <c r="B48" s="15">
-        <v>759</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="168"/>
-      <c r="B49" s="15">
-        <v>760</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="168"/>
-      <c r="B50" s="15">
-        <v>761</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40">
+        <f>SUM(E4:E42)</f>
+        <v>442045</v>
+      </c>
+      <c r="F43" s="113"/>
+      <c r="G43" s="40">
+        <f>SUM(G4:G42)</f>
+        <v>430220</v>
+      </c>
+      <c r="H43" s="41">
+        <f>SUM(H23:H42)</f>
+        <v>11825</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="114"/>
+      <c r="G45" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="176">
+        <f>E43-G43</f>
+        <v>11825</v>
+      </c>
+      <c r="F47" s="177"/>
+      <c r="G47" s="178"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="43"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="179"/>
+      <c r="G49" s="179"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="47"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="51"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="168"/>
-      <c r="B51" s="15">
-        <v>762</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="168"/>
-      <c r="B52" s="15">
-        <v>763</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="168"/>
-      <c r="B53" s="15">
-        <v>764</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="53"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="169"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="169"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="169"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35">
-        <v>0</v>
-      </c>
-      <c r="F54" s="112"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="58"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="37"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="40">
-        <f>SUM(E4:E54)</f>
-        <v>442045</v>
-      </c>
-      <c r="F55" s="113"/>
-      <c r="G55" s="40">
-        <f>SUM(G4:G54)</f>
-        <v>430220</v>
-      </c>
-      <c r="H55" s="41">
-        <f>SUM(H23:H54)</f>
-        <v>11825</v>
-      </c>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="169"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="58"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="44"/>
+      <c r="A56" s="169"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="58"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="37"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="114"/>
-      <c r="G57" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="44"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="169"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="58"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="44"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="169"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="58"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="180">
-        <f>E55-G55</f>
-        <v>11825</v>
-      </c>
-      <c r="F59" s="181"/>
-      <c r="G59" s="182"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="169"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="58"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="37"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="43"/>
+      <c r="A60" s="169"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="58"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="37"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="183" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="183"/>
-      <c r="G61" s="183"/>
-      <c r="I61" s="2"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="169"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="58"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="115"/>
-      <c r="G62" s="51"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="170"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="171"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="116"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="171"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="171"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="116"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="171"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="116"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="171"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="116"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="171"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="116"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="171"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="116"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="171"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="116"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="171"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="116"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="171"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="116"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="58"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="171"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="117"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="58"/>
+      <c r="A62" s="169"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9582,8 +9406,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9600,18 +9424,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="Z2" s="155"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="77" t="s">
@@ -9651,7 +9475,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -9673,7 +9497,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -9696,7 +9520,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -9719,7 +9543,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -9741,7 +9565,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -9763,17 +9587,17 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="91">
         <v>45047</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="170">
         <v>45056</v>
       </c>
-      <c r="D10" s="173">
+      <c r="D10" s="171">
         <v>32503.5</v>
       </c>
       <c r="E10" s="20">
@@ -9785,17 +9609,17 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="91">
         <v>45048</v>
       </c>
-      <c r="C11" s="172">
+      <c r="C11" s="170">
         <v>45056</v>
       </c>
-      <c r="D11" s="173">
+      <c r="D11" s="171">
         <v>46547</v>
       </c>
       <c r="E11" s="20">
@@ -9807,17 +9631,17 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="91">
         <v>45049</v>
       </c>
-      <c r="C12" s="172">
+      <c r="C12" s="170">
         <v>45056</v>
       </c>
-      <c r="D12" s="173">
+      <c r="D12" s="171">
         <v>59118</v>
       </c>
       <c r="E12" s="20">
@@ -9829,17 +9653,17 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="91">
         <v>45050</v>
       </c>
-      <c r="C13" s="172">
+      <c r="C13" s="170">
         <v>45056</v>
       </c>
-      <c r="D13" s="173">
+      <c r="D13" s="171">
         <v>52328.5</v>
       </c>
       <c r="E13" s="20">
@@ -9851,17 +9675,17 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="91">
         <v>45051</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="170">
         <v>45056</v>
       </c>
-      <c r="D14" s="173">
+      <c r="D14" s="171">
         <v>66103</v>
       </c>
       <c r="E14" s="20">
@@ -9873,17 +9697,17 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="91">
         <v>45052</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="170">
         <v>45056</v>
       </c>
-      <c r="D15" s="173">
+      <c r="D15" s="171">
         <v>51405</v>
       </c>
       <c r="E15" s="20">
@@ -9895,17 +9719,17 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="91">
         <v>45053</v>
       </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>45056</v>
       </c>
-      <c r="D16" s="173">
+      <c r="D16" s="171">
         <v>64094</v>
       </c>
       <c r="E16" s="20">
@@ -9917,17 +9741,17 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="91">
         <v>45054</v>
       </c>
-      <c r="C17" s="172">
+      <c r="C17" s="170">
         <v>45056</v>
       </c>
-      <c r="D17" s="173">
+      <c r="D17" s="171">
         <v>91260.5</v>
       </c>
       <c r="E17" s="20">
@@ -9939,17 +9763,17 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="91">
         <v>45055</v>
       </c>
-      <c r="C18" s="174">
+      <c r="C18" s="193">
         <v>45065</v>
       </c>
-      <c r="D18" s="175">
+      <c r="D18" s="194">
         <v>83287</v>
       </c>
       <c r="E18" s="20">
@@ -9961,17 +9785,17 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="91">
         <v>45056</v>
       </c>
-      <c r="C19" s="174">
+      <c r="C19" s="193">
         <v>45065</v>
       </c>
-      <c r="D19" s="175">
+      <c r="D19" s="194">
         <v>47443.5</v>
       </c>
       <c r="E19" s="20">
@@ -9983,17 +9807,17 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="91">
         <v>45057</v>
       </c>
-      <c r="C20" s="174">
+      <c r="C20" s="193">
         <v>45065</v>
       </c>
-      <c r="D20" s="175">
+      <c r="D20" s="194">
         <v>65642.5</v>
       </c>
       <c r="E20" s="20">
@@ -10005,17 +9829,17 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="91">
         <v>45058</v>
       </c>
-      <c r="C21" s="174">
+      <c r="C21" s="193">
         <v>45065</v>
       </c>
-      <c r="D21" s="175">
+      <c r="D21" s="194">
         <v>75016</v>
       </c>
       <c r="E21" s="20">
@@ -10027,17 +9851,17 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="91">
         <v>45059</v>
       </c>
-      <c r="C22" s="174">
+      <c r="C22" s="193">
         <v>45065</v>
       </c>
-      <c r="D22" s="175">
+      <c r="D22" s="194">
         <v>34165</v>
       </c>
       <c r="E22" s="20">
@@ -10049,17 +9873,17 @@
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="91">
         <v>45060</v>
       </c>
-      <c r="C23" s="174">
+      <c r="C23" s="193">
         <v>45065</v>
       </c>
-      <c r="D23" s="175">
+      <c r="D23" s="194">
         <v>31658</v>
       </c>
       <c r="E23" s="20">
@@ -10071,17 +9895,17 @@
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="91">
         <v>45061</v>
       </c>
-      <c r="C24" s="174">
+      <c r="C24" s="193">
         <v>45065</v>
       </c>
-      <c r="D24" s="175">
+      <c r="D24" s="194">
         <v>55417.5</v>
       </c>
       <c r="E24" s="20">
@@ -10093,17 +9917,17 @@
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="91">
         <v>45062</v>
       </c>
-      <c r="C25" s="174">
+      <c r="C25" s="193">
         <v>45065</v>
       </c>
-      <c r="D25" s="175">
+      <c r="D25" s="194">
         <v>62175</v>
       </c>
       <c r="E25" s="20">
@@ -10115,17 +9939,17 @@
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="91">
         <v>45063</v>
       </c>
-      <c r="C26" s="174">
+      <c r="C26" s="193">
         <v>45065</v>
       </c>
-      <c r="D26" s="175">
+      <c r="D26" s="194">
         <v>58798</v>
       </c>
       <c r="E26" s="20">
@@ -10137,32 +9961,44 @@
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="91"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="175"/>
+      <c r="B27" s="91">
+        <v>45064</v>
+      </c>
+      <c r="C27" s="195">
+        <v>45070</v>
+      </c>
+      <c r="D27" s="196">
+        <v>4116</v>
+      </c>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1260400</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="91"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="175"/>
+      <c r="B28" s="91">
+        <v>45065</v>
+      </c>
+      <c r="C28" s="195">
+        <v>45070</v>
+      </c>
+      <c r="D28" s="196">
+        <v>97356.5</v>
+      </c>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1357756.5</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="146">
@@ -10176,32 +10012,44 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-563239.27</v>
+        <v>-320284.77</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="175"/>
+      <c r="B29" s="91">
+        <v>45066</v>
+      </c>
+      <c r="C29" s="195">
+        <v>45070</v>
+      </c>
+      <c r="D29" s="196">
+        <v>7591</v>
+      </c>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1365347.5</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-563239.27</v>
+        <v>-320284.77</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="91">
+        <v>45067</v>
+      </c>
+      <c r="C30" s="195">
+        <v>45070</v>
+      </c>
+      <c r="D30" s="196">
+        <v>58917</v>
+      </c>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1424264.5</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -10209,12 +10057,18 @@
       <c r="J30" s="100"/>
     </row>
     <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="52"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="102"/>
+      <c r="B31" s="52">
+        <v>45068</v>
+      </c>
+      <c r="C31" s="197">
+        <v>45070</v>
+      </c>
+      <c r="D31" s="198">
+        <v>74974</v>
+      </c>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -10227,7 +10081,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10236,7 +10090,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10245,7 +10099,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10254,7 +10108,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10263,7 +10117,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10272,7 +10126,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10281,7 +10135,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10290,7 +10144,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10299,7 +10153,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10308,7 +10162,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10317,7 +10171,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -10326,7 +10180,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -10337,7 +10191,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -10348,7 +10202,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -10359,7 +10213,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -10371,7 +10225,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1256284</v>
+        <v>1499238.5</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
